--- a/220420_Liste RG SO_privatrechtlich.xlsx
+++ b/220420_Liste RG SO_privatrechtlich.xlsx
@@ -492,7 +492,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -557,14 +557,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,16 +565,8 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -668,9 +652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>568800</xdr:rowOff>
+      <xdr:rowOff>568440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -683,8 +667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="14713560"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="14713560"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,9 +689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>585000</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>568800</xdr:rowOff>
+      <xdr:rowOff>568440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -720,8 +704,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11788920" y="11856240"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11791080" y="11856240"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,9 +726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -757,8 +741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11800800" y="12487320"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11802960" y="12487320"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,9 +763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>657000</xdr:colOff>
+      <xdr:colOff>656640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>592560</xdr:rowOff>
+      <xdr:rowOff>592200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -794,8 +778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11860560" y="10070280"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11862720" y="10070280"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,9 +800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>573480</xdr:colOff>
+      <xdr:colOff>573120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -831,8 +815,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11777040" y="561960"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11779200" y="561960"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,9 +837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>573480</xdr:colOff>
+      <xdr:colOff>573120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>592560</xdr:rowOff>
+      <xdr:rowOff>592200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -868,8 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11777040" y="1193040"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11779200" y="1193040"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -890,9 +874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>595080</xdr:colOff>
+      <xdr:colOff>594720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>554760</xdr:rowOff>
+      <xdr:rowOff>554400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -905,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11798640" y="1774080"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11800800" y="1774080"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -927,9 +911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>604440</xdr:rowOff>
+      <xdr:rowOff>604080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -942,8 +926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11800800" y="2452680"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11802960" y="2452680"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,9 +948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>590400</xdr:rowOff>
+      <xdr:rowOff>590040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -979,8 +963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11810520" y="3067200"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11812680" y="3067200"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1001,9 +985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1016,8 +1000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="3676680"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="3676680"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1038,9 +1022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>592560</xdr:rowOff>
+      <xdr:rowOff>592200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,8 +1037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11800800" y="4307400"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11802960" y="4307400"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,9 +1059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>568800</xdr:rowOff>
+      <xdr:rowOff>568440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1090,8 +1074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="4902840"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="4902840"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1112,9 +1096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>585360</xdr:colOff>
+      <xdr:colOff>585000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1127,8 +1111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11788920" y="5533920"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11791080" y="5533920"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,9 +1133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>556920</xdr:rowOff>
+      <xdr:rowOff>556560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1164,8 +1148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="6129360"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="6129360"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1186,9 +1170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>595080</xdr:colOff>
+      <xdr:colOff>594720</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>566640</xdr:rowOff>
+      <xdr:rowOff>566280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1201,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11798640" y="6758280"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11800800" y="6758280"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1223,9 +1207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1238,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="7391160"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="7391160"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1260,9 +1244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1275,8 +1259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="8010360"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="8010360"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1297,9 +1281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>592560</xdr:rowOff>
+      <xdr:rowOff>592200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1312,8 +1296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="8641440"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11814840" y="8641440"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1334,9 +1318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>620640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>568800</xdr:rowOff>
+      <xdr:rowOff>568440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,8 +1333,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11824560" y="9236880"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11826720" y="9236880"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1371,9 +1355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>585360</xdr:rowOff>
+      <xdr:rowOff>585000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1386,8 +1370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11848680" y="11082240"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11850840" y="11082240"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1408,9 +1392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>620640</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>580680</xdr:rowOff>
+      <xdr:rowOff>580320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1423,8 +1407,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11824560" y="13296960"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11826720" y="13296960"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1445,9 +1429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>621000</xdr:colOff>
+      <xdr:colOff>620640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>556920</xdr:rowOff>
+      <xdr:rowOff>556560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1460,8 +1444,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11824560" y="13892040"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11826720" y="13892040"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1482,9 +1466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>556920</xdr:rowOff>
+      <xdr:rowOff>556560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1497,8 +1481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11800800" y="15511320"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11802960" y="15511320"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,9 +1503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>568800</xdr:rowOff>
+      <xdr:rowOff>568440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1534,8 +1518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11800800" y="16332840"/>
-          <a:ext cx="561600" cy="533160"/>
+          <a:off x="11802960" y="16332840"/>
+          <a:ext cx="561240" cy="532800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1556,9 +1540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>597600</xdr:rowOff>
+      <xdr:rowOff>597240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1571,8 +1555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11824560" y="17190360"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11826720" y="17190360"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,9 +1577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>573480</xdr:rowOff>
+      <xdr:rowOff>573120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1608,8 +1592,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11836440" y="17785440"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11838600" y="17785440"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1630,9 +1614,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:colOff>604080</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>547560</xdr:rowOff>
+      <xdr:rowOff>547200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1645,8 +1629,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11846160" y="18378720"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11848320" y="18378720"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,9 +1651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1682,8 +1666,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11836440" y="19071720"/>
-          <a:ext cx="523440" cy="513720"/>
+          <a:off x="11838600" y="19071720"/>
+          <a:ext cx="523080" cy="513360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1704,9 +1688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>585360</xdr:rowOff>
+      <xdr:rowOff>585000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1719,8 +1703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="19654560"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11814840" y="19654560"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,9 +1725,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>583200</xdr:rowOff>
+      <xdr:rowOff>582840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1756,8 +1740,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11822400" y="20271600"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11824560" y="20271600"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1778,9 +1762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>585360</xdr:rowOff>
+      <xdr:rowOff>585000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1793,8 +1777,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11824560" y="20892960"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11826720" y="20892960"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1815,9 +1799,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>597600</xdr:rowOff>
+      <xdr:rowOff>597240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1830,8 +1814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11836440" y="21533760"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11838600" y="21533760"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,9 +1836,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>573480</xdr:rowOff>
+      <xdr:rowOff>573120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1867,8 +1851,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11836440" y="22128840"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11838600" y="22128840"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1889,9 +1873,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>573480</xdr:rowOff>
+      <xdr:rowOff>573120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1904,8 +1888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11836440" y="22748040"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11838600" y="22748040"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1926,9 +1910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>561600</xdr:rowOff>
+      <xdr:rowOff>561240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1941,8 +1925,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11812680" y="23355360"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11814840" y="23355360"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1963,9 +1947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>585360</xdr:rowOff>
+      <xdr:rowOff>585000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1978,8 +1962,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11836440" y="23997960"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11838600" y="23997960"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2000,9 +1984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>585360</xdr:rowOff>
+      <xdr:rowOff>585000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2015,8 +1999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11860560" y="24617160"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11862720" y="24617160"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2037,9 +2021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>585360</xdr:rowOff>
+      <xdr:rowOff>585000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2052,8 +2036,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11860560" y="25236360"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11862720" y="25236360"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2074,9 +2058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:colOff>604080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>571320</xdr:rowOff>
+      <xdr:rowOff>570960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2089,8 +2073,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11846160" y="25841520"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11848320" y="25841520"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2111,9 +2095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>597600</xdr:rowOff>
+      <xdr:rowOff>597240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2126,8 +2110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11860560" y="26487000"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11862720" y="26487000"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2148,9 +2132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>597600</xdr:rowOff>
+      <xdr:rowOff>597240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2163,8 +2147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11860560" y="27105840"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11862720" y="27105840"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2185,9 +2169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>573480</xdr:rowOff>
+      <xdr:rowOff>573120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2200,8 +2184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11848680" y="27700920"/>
-          <a:ext cx="523440" cy="514080"/>
+          <a:off x="11850840" y="27700920"/>
+          <a:ext cx="523080" cy="513720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2223,15 +2207,15 @@
   </sheetPr>
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.61328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.57"/>
   </cols>
@@ -2539,7 +2523,7 @@
       <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2555,23 +2539,23 @@
       <c r="D19" s="5" t="n">
         <v>1994</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2593,11 +2577,11 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2637,11 +2621,11 @@
       <c r="F25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2669,7 +2653,7 @@
       <c r="B28" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="5" t="n">
@@ -2681,11 +2665,11 @@
       <c r="F28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="16"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2701,15 +2685,15 @@
       <c r="D30" s="5" t="n">
         <v>2002</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="16"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2725,31 +2709,31 @@
       <c r="D32" s="5" t="n">
         <v>1980</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="16"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>1913</v>
       </c>
-      <c r="E34" s="16"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2782,7 +2766,7 @@
       <c r="A37" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -2803,7 +2787,7 @@
       <c r="B38" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D38" s="15" t="s">
@@ -2818,10 +2802,10 @@
       <c r="A39" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -2839,7 +2823,7 @@
       <c r="B40" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="16" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -2872,7 +2856,7 @@
       <c r="A42" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="16" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -2926,7 +2910,7 @@
       <c r="A45" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -2980,7 +2964,7 @@
       <c r="A48" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -2998,7 +2982,7 @@
       <c r="A49" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -3052,13 +3036,13 @@
       <c r="A52" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="22" t="n">
+      <c r="D52" s="5" t="n">
         <v>1921</v>
       </c>
       <c r="E52" s="6" t="s">
@@ -3070,13 +3054,13 @@
       <c r="A53" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="22" t="n">
+      <c r="D53" s="5" t="n">
         <v>1920</v>
       </c>
       <c r="E53" s="6" t="s">
